--- a/data/spring-kafka-microservices/ms-payment_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-payment_structure.xlsx
@@ -15,12 +15,14 @@
     <sheet name="interfaceToInterfaceRelations" r:id="rId9" sheetId="7"/>
     <sheet name="fieldClassRelations" r:id="rId10" sheetId="8"/>
     <sheet name="fieldInterfaceRelations" r:id="rId11" sheetId="9"/>
+    <sheet name="classNumberOfLines" r:id="rId12" sheetId="10"/>
+    <sheet name="methodNumberOfLines" r:id="rId13" sheetId="11"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="98">
   <si>
     <t>Class Name</t>
   </si>
@@ -202,31 +204,37 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>repository</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>amountReserved</t>
+  </si>
+  <si>
+    <t>amountAvailable</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
-    <t>amountReserved</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>amountAvailable</t>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>domain.OrderSource</t>
   </si>
   <si>
     <t>template</t>
@@ -235,12 +243,6 @@
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>domain.OrderSource</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -290,6 +292,30 @@
   </si>
   <si>
     <t>Target Field Name</t>
+  </si>
+  <si>
+    <t>Number of Lines</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -2053,6 +2079,387 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:D1"/>
@@ -2113,7 +2520,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>62</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -2121,13 +2528,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -2135,13 +2542,13 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -2149,13 +2556,13 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -2169,7 +2576,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -2197,7 +2604,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -2211,7 +2618,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -2225,7 +2632,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -2233,13 +2640,13 @@
         <v>44</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2261,7 +2668,7 @@
         <v>44</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>61</v>
@@ -2289,13 +2696,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -2303,13 +2710,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -2317,7 +2724,7 @@
         <v>51</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>61</v>

--- a/data/spring-kafka-microservices/ms-payment_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-payment_structure.xlsx
@@ -204,43 +204,43 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
+    <t>org.slf4j.Logger</t>
+  </si>
+  <si>
     <t>repository</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>org.slf4j.Logger</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
+    <t>amountReserved</t>
+  </si>
+  <si>
+    <t>amountAvailable</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>amountReserved</t>
-  </si>
-  <si>
-    <t>amountAvailable</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
+  </si>
+  <si>
     <t>SOURCE</t>
   </si>
   <si>
     <t>domain.OrderSource</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
     <t>Source Class Name</t>
@@ -2520,7 +2520,7 @@
         <v>61</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -2528,13 +2528,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -2542,13 +2542,13 @@
         <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -2576,7 +2576,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -2604,7 +2604,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -2646,7 +2646,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12">
@@ -2674,7 +2674,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2682,13 +2682,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -2696,13 +2696,13 @@
         <v>51</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2710,13 +2710,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -2724,13 +2724,13 @@
         <v>51</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>27</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-payment_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-payment_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="108">
   <si>
     <t>Class Name</t>
   </si>
@@ -219,16 +219,22 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>amountReserved</t>
   </si>
   <si>
     <t>amountAvailable</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>domain.OrderSource</t>
   </si>
   <si>
     <t>template</t>
@@ -237,12 +243,6 @@
     <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>domain.OrderSource</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -297,25 +297,55 @@
     <t>Number of Lines</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>37</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>DevBootstrap(com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository)</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>OrderListener(com.zatribune.spring.ecommerce.payments.service.OrderService)</t>
+  </si>
+  <si>
+    <t>PaymentApplicationTests()</t>
+  </si>
+  <si>
+    <t>Customer()</t>
+  </si>
+  <si>
+    <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>Customer$CustomerBuilder()</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>OrderServiceImpl(com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
+    <t>PaymentApplication()</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2154,7 @@
         <v>28</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -2132,7 +2162,7 @@
         <v>31</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -2140,7 +2170,7 @@
         <v>34</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
@@ -2148,7 +2178,7 @@
         <v>44</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2156,7 +2186,7 @@
         <v>51</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
@@ -2164,7 +2194,7 @@
         <v>52</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2174,7 +2204,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2199,59 +2229,59 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>79</v>
@@ -2259,24 +2289,24 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -2284,10 +2314,10 @@
         <v>34</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
@@ -2295,10 +2325,10 @@
         <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -2306,10 +2336,10 @@
         <v>34</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2347,10 @@
         <v>34</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
@@ -2328,10 +2358,10 @@
         <v>34</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -2339,10 +2369,10 @@
         <v>34</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16">
@@ -2350,62 +2380,62 @@
         <v>34</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>93</v>
@@ -2416,42 +2446,130 @@
         <v>44</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="B32" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="C32" t="s" s="0">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s" s="0">
         <v>93</v>
       </c>
     </row>
@@ -2576,7 +2694,7 @@
         <v>61</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -2590,7 +2708,7 @@
         <v>61</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -2604,7 +2722,7 @@
         <v>61</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9">
@@ -2618,7 +2736,7 @@
         <v>61</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -2632,7 +2750,7 @@
         <v>61</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11">
@@ -2646,7 +2764,7 @@
         <v>61</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12">
@@ -2660,7 +2778,7 @@
         <v>61</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -2674,7 +2792,7 @@
         <v>61</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
@@ -2682,13 +2800,13 @@
         <v>51</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
@@ -2710,13 +2828,13 @@
         <v>51</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17">
@@ -2724,13 +2842,13 @@
         <v>51</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>61</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-payment_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-payment_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="110">
   <si>
     <t>Class Name</t>
   </si>
@@ -303,7 +303,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>0</t>
+    <t>42</t>
   </si>
   <si>
     <t>28</t>
@@ -315,6 +315,9 @@
     <t>3</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>DevBootstrap(com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository)</t>
   </si>
   <si>
@@ -331,6 +334,9 @@
   </si>
   <si>
     <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>Customer$CustomerBuilder()</t>
@@ -2146,7 +2152,7 @@
         <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -2229,7 +2235,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
@@ -2237,7 +2243,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>96</v>
@@ -2251,7 +2257,7 @@
         <v>26</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
@@ -2259,7 +2265,7 @@
         <v>25</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>96</v>
@@ -2303,10 +2309,10 @@
         <v>31</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
@@ -2317,7 +2323,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -2328,7 +2334,7 @@
         <v>43</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -2339,7 +2345,7 @@
         <v>38</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13">
@@ -2350,7 +2356,7 @@
         <v>41</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
@@ -2361,7 +2367,7 @@
         <v>37</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15">
@@ -2372,7 +2378,7 @@
         <v>40</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16">
@@ -2383,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -2394,7 +2400,7 @@
         <v>35</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18">
@@ -2405,7 +2411,7 @@
         <v>36</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -2416,7 +2422,7 @@
         <v>42</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
@@ -2424,10 +2430,10 @@
         <v>34</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -2435,10 +2441,10 @@
         <v>34</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
@@ -2512,7 +2518,7 @@
         <v>44</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>80</v>
@@ -2526,7 +2532,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -2537,7 +2543,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
@@ -2545,7 +2551,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>83</v>
@@ -2567,10 +2573,10 @@
         <v>52</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-payment_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-payment_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="109">
   <si>
     <t>Class Name</t>
   </si>
@@ -60,51 +60,57 @@
     <t>protected</t>
   </si>
   <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>java.lang.String</t>
+  </si>
+  <si>
+    <t>getClass()</t>
+  </si>
+  <si>
+    <t>java.lang.Class</t>
+  </si>
+  <si>
+    <t>DevBootstrap(com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository)</t>
+  </si>
+  <si>
+    <t>notifyAll()</t>
+  </si>
+  <si>
+    <t>hashCode()</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>wait()</t>
+  </si>
+  <si>
     <t>notify()</t>
   </si>
   <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>java.lang.String</t>
-  </si>
-  <si>
     <t>wait(long)</t>
   </si>
   <si>
     <t>wait(long, int)</t>
   </si>
   <si>
-    <t>getClass()</t>
-  </si>
-  <si>
-    <t>java.lang.Class</t>
-  </si>
-  <si>
     <t>clone()</t>
   </si>
   <si>
     <t>java.lang.Object</t>
   </si>
   <si>
-    <t>notifyAll()</t>
-  </si>
-  <si>
-    <t>hashCode()</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>wait()</t>
-  </si>
-  <si>
     <t>com.zatribune.spring.ecommerce.payments.listener.OrderListener</t>
   </si>
   <si>
     <t>onEvent(domain.Order)</t>
   </si>
   <si>
+    <t>OrderListener(com.zatribune.spring.ecommerce.payments.service.OrderService)</t>
+  </si>
+  <si>
     <t>com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository</t>
   </si>
   <si>
@@ -120,12 +126,15 @@
     <t>com.zatribune.spring.ecommerce.payments.PaymentApplicationTests</t>
   </si>
   <si>
+    <t>PaymentApplicationTests()</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>contextLoads()</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>com.zatribune.spring.ecommerce.payments.db.entities.Customer</t>
   </si>
   <si>
@@ -135,6 +144,9 @@
     <t>setAmountAvailable(int)</t>
   </si>
   <si>
+    <t>Customer()</t>
+  </si>
+  <si>
     <t>getAmountAvailable()</t>
   </si>
   <si>
@@ -153,6 +165,9 @@
     <t>setAmountReserved(int)</t>
   </si>
   <si>
+    <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
+  </si>
+  <si>
     <t>builder()</t>
   </si>
   <si>
@@ -177,15 +192,24 @@
     <t>amountReserved(int)</t>
   </si>
   <si>
+    <t>Customer$CustomerBuilder()</t>
+  </si>
+  <si>
     <t>com.zatribune.spring.ecommerce.payments.service.OrderServiceImpl</t>
   </si>
   <si>
+    <t>OrderServiceImpl(com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository, org.springframework.kafka.core.KafkaTemplate)</t>
+  </si>
+  <si>
     <t>com.zatribune.spring.ecommerce.payments.PaymentApplication</t>
   </si>
   <si>
     <t>main(java.lang.String[])</t>
   </si>
   <si>
+    <t>PaymentApplication()</t>
+  </si>
+  <si>
     <t>Interface Name</t>
   </si>
   <si>
@@ -219,6 +243,9 @@
     <t>orderService</t>
   </si>
   <si>
+    <t>amountAvailable</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -228,7 +255,10 @@
     <t>amountReserved</t>
   </si>
   <si>
-    <t>amountAvailable</t>
+    <t>template</t>
+  </si>
+  <si>
+    <t>org.springframework.kafka.core.KafkaTemplate</t>
   </si>
   <si>
     <t>SOURCE</t>
@@ -237,12 +267,6 @@
     <t>domain.OrderSource</t>
   </si>
   <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>org.springframework.kafka.core.KafkaTemplate</t>
-  </si>
-  <si>
     <t>Source Class Name</t>
   </si>
   <si>
@@ -318,40 +342,13 @@
     <t>7</t>
   </si>
   <si>
-    <t>DevBootstrap(com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository)</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
-    <t>OrderListener(com.zatribune.spring.ecommerce.payments.service.OrderService)</t>
-  </si>
-  <si>
-    <t>PaymentApplicationTests()</t>
-  </si>
-  <si>
-    <t>Customer()</t>
-  </si>
-  <si>
-    <t>Customer(java.lang.Long, java.lang.String, int, int)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Customer$CustomerBuilder()</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
     <t>13</t>
-  </si>
-  <si>
-    <t>OrderServiceImpl(com.zatribune.spring.ecommerce.payments.db.repository.CustomerRepository, org.springframework.kafka.core.KafkaTemplate)</t>
-  </si>
-  <si>
-    <t>PaymentApplication()</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -469,7 +466,7 @@
         <v>6</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -477,13 +474,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -491,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s" s="0">
         <v>6</v>
@@ -505,7 +502,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s" s="0">
         <v>6</v>
@@ -519,13 +516,13 @@
         <v>4</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -533,13 +530,13 @@
         <v>4</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -567,7 +564,7 @@
         <v>6</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -575,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>6</v>
@@ -586,41 +583,41 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="0">
         <v>25</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s" s="0">
         <v>7</v>
@@ -628,24 +625,24 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="C17" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>6</v>
@@ -656,24 +653,24 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="C19" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>6</v>
@@ -684,7 +681,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s" s="0">
         <v>17</v>
@@ -693,29 +690,29 @@
         <v>6</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C22" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>6</v>
@@ -726,24 +723,24 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>6</v>
@@ -754,66 +751,66 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>6</v>
@@ -824,80 +821,80 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D31" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D34" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>6</v>
@@ -908,27 +905,27 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>7</v>
@@ -936,27 +933,27 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>7</v>
@@ -964,24 +961,24 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>6</v>
@@ -992,38 +989,38 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>6</v>
@@ -1034,24 +1031,24 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>6</v>
@@ -1062,10 +1059,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>6</v>
@@ -1076,69 +1073,69 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>7</v>
@@ -1146,38 +1143,38 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B54" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s" s="0">
         <v>13</v>
-      </c>
-      <c r="C54" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s" s="0">
-        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B55" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="C55" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s" s="0">
         <v>6</v>
@@ -1188,38 +1185,38 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B58" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="C58" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>6</v>
@@ -1230,27 +1227,27 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D61" t="s" s="0">
         <v>7</v>
@@ -1258,10 +1255,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>6</v>
@@ -1272,189 +1269,189 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B76" t="s" s="0">
         <v>42</v>
@@ -1463,43 +1460,43 @@
         <v>6</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>6</v>
@@ -1510,10 +1507,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>6</v>
@@ -1524,41 +1521,41 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="C82" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D83" t="s" s="0">
         <v>7</v>
@@ -1566,69 +1563,69 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D85" t="s" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D86" t="s" s="0">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D87" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D88" t="s" s="0">
         <v>7</v>
@@ -1636,108 +1633,108 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D89" t="s" s="0">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C90" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D90" t="s" s="0">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D91" t="s" s="0">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D92" t="s" s="0">
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D93" t="s" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D94" t="s" s="0">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D95" t="s" s="0">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s" s="0">
         <v>6</v>
@@ -1748,41 +1745,41 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D97" t="s" s="0">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D98" t="s" s="0">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D99" t="s" s="0">
         <v>7</v>
@@ -1790,24 +1787,24 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="C100" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D100" t="s" s="0">
-        <v>14</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s" s="0">
         <v>6</v>
@@ -1818,80 +1815,80 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D102" t="s" s="0">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D103" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D104" t="s" s="0">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D105" t="s" s="0">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D106" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C107" t="s" s="0">
         <v>6</v>
@@ -1902,24 +1899,24 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B108" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="C108" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D108" t="s" s="0">
-        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>6</v>
@@ -1930,41 +1927,41 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D110" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D111" t="s" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s" s="0">
         <v>7</v>
@@ -1972,10 +1969,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>6</v>
@@ -1986,24 +1983,24 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D114" t="s" s="0">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>6</v>
@@ -2014,24 +2011,24 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D116" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C117" t="s" s="0">
         <v>6</v>
@@ -2042,71 +2039,183 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D118" t="s" s="0">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s" s="0">
         <v>11</v>
       </c>
       <c r="D119" t="s" s="0">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D120" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C121" t="s" s="0">
         <v>6</v>
       </c>
       <c r="D121" t="s" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B122" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B129" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="C122" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D122" t="s" s="0">
+      <c r="C129" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="D130" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -2128,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -2136,71 +2245,71 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2210,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2224,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
@@ -2235,213 +2344,213 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>80</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>104</v>
@@ -2449,134 +2558,46 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>83</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s" s="0">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s" s="0">
-        <v>105</v>
-      </c>
-      <c r="C28" t="s" s="0">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B29" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="C29" t="s" s="0">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B30" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s" s="0">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s" s="0">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B32" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C32" t="s" s="0">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B33" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="C33" t="s" s="0">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2594,13 +2615,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s" s="0">
         <v>3</v>
@@ -2624,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -2638,13 +2659,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3">
@@ -2652,209 +2673,209 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>61</v>
-      </c>
       <c r="D15" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="0">
         <v>71</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>72</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>27</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2872,87 +2893,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C2" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="D2" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="C4" t="s" s="0">
-        <v>27</v>
-      </c>
       <c r="D4" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -2963,30 +2984,30 @@
         <v>5</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -2997,30 +3018,30 @@
         <v>5</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -3031,13 +3052,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11">
@@ -3048,64 +3069,64 @@
         <v>5</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15">
@@ -3116,47 +3137,47 @@
         <v>5</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -3167,64 +3188,64 @@
         <v>5</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3242,19 +3263,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3272,19 +3293,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3302,19 +3323,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>85</v>
-      </c>
-      <c r="E1" t="s" s="0">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -3332,19 +3353,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3362,19 +3383,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s" s="0">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-payment_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-payment_structure.xlsx
@@ -249,10 +249,10 @@
     <t>name</t>
   </si>
   <si>
+    <t>amountReserved</t>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>amountReserved</t>
   </si>
   <si>
     <t>template</t>
@@ -2749,7 +2749,7 @@
         <v>69</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
@@ -2763,7 +2763,7 @@
         <v>69</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -2771,13 +2771,13 @@
         <v>49</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -2785,13 +2785,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -2799,13 +2799,13 @@
         <v>49</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
@@ -2813,7 +2813,7 @@
         <v>49</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>69</v>
@@ -2855,13 +2855,13 @@
         <v>57</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -2869,13 +2869,13 @@
         <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/spring-kafka-microservices/ms-payment_structure.xlsx
+++ b/data/spring-kafka-microservices/ms-payment_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="110">
   <si>
     <t>Class Name</t>
   </si>
@@ -228,18 +228,18 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>log</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
     <t>org.slf4j.Logger</t>
   </si>
   <si>
-    <t>repository</t>
-  </si>
-  <si>
     <t>orderService</t>
   </si>
   <si>
@@ -249,12 +249,12 @@
     <t>name</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>amountReserved</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>template</t>
   </si>
   <si>
@@ -325,6 +325,9 @@
   </si>
   <si>
     <t>14</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>42</t>
@@ -2261,7 +2264,7 @@
         <v>29</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
@@ -2285,7 +2288,7 @@
         <v>37</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
@@ -2293,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -2301,7 +2304,7 @@
         <v>57</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -2309,7 +2312,7 @@
         <v>59</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2344,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
@@ -2355,7 +2358,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4">
@@ -2399,7 +2402,7 @@
         <v>12</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -2410,7 +2413,7 @@
         <v>48</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2421,7 +2424,7 @@
         <v>42</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -2432,7 +2435,7 @@
         <v>45</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2443,7 +2446,7 @@
         <v>41</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -2454,7 +2457,7 @@
         <v>44</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -2465,7 +2468,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -2476,7 +2479,7 @@
         <v>38</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
@@ -2487,7 +2490,7 @@
         <v>39</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -2498,7 +2501,7 @@
         <v>46</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -2553,7 +2556,7 @@
         <v>52</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22">
@@ -2564,7 +2567,7 @@
         <v>12</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
@@ -2575,7 +2578,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24">
@@ -2586,7 +2589,7 @@
         <v>32</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25">
@@ -2597,7 +2600,7 @@
         <v>60</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +2668,7 @@
         <v>69</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>70</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -2673,13 +2676,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>29</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -2687,13 +2690,13 @@
         <v>26</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -2701,13 +2704,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -2749,7 +2752,7 @@
         <v>69</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9">
@@ -2763,7 +2766,7 @@
         <v>69</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -2771,7 +2774,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>69</v>
@@ -2785,13 +2788,13 @@
         <v>49</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -2799,13 +2802,13 @@
         <v>49</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -2813,13 +2816,13 @@
         <v>49</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2827,13 +2830,13 @@
         <v>57</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -2841,13 +2844,13 @@
         <v>57</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
@@ -2855,13 +2858,13 @@
         <v>57</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -2869,7 +2872,7 @@
         <v>57</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>69</v>
